--- a/biology/Zoologie/Akko_(poisson)/Akko_(poisson).xlsx
+++ b/biology/Zoologie/Akko_(poisson)/Akko_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Akko est un genre de poissons marins de la famille des Gobiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (4 avril 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (4 avril 2024) :
 Akko brevis (Günther, 1864)
 Akko dionaea Birdsong &amp; Robins, 1995
 Akko rossi Van Tassell &amp; Baldwin, 2004</t>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Akko Birdsong &amp; Robins, 1995[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Akko Birdsong &amp; Robins, 1995,.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Ray S. Birdsong et C. Richard Robins, « New Genus and Species of Seven-Spined Goby (Gobiidae: Gobiosomini) from the Offing of the Amazon River, Brazil », Copeia, Société américaine des ichtyologistes et des herpétologistes, vol. 1995, no 3,‎ 18 août 1995, p. 676-683 (ISSN 0045-8511 et 1938-5110, OCLC 1565060, DOI 10.2307/1446764, JSTOR 1446764)</t>
         </is>
